--- a/resources/testData/testData.xlsx
+++ b/resources/testData/testData.xlsx
@@ -1,18 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kamal\auspost-javatestautomation\resources\testData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="BOEExtension" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="BOEClosure" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="ORMMaster" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="BOEExtension" sheetId="1" r:id="rId1"/>
+    <sheet name="BOEClosure" sheetId="2" r:id="rId2"/>
+    <sheet name="ORMMaster" sheetId="3" r:id="rId3"/>
+    <sheet name="API" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,224 +28,286 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="69">
-  <si>
-    <t xml:space="preserve">T001_openBOEExtension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">username</t>
-  </si>
-  <si>
-    <t xml:space="preserve">password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">import</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_bob3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">123Welcome*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T002_checkAutofillToDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">from date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01/02/2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01/02/2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T003_searchByBOEnumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boe number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01/02/2010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T005_uploadBOEFile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filepath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">.\\resources\\Uploads\\upload1.bee.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T006_DownloadCSVFile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01/01/2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T007_ViewBOE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T008_RaiseBOEExtension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">extension date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31/01/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T009_cancelBOEExtension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01/01/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0003746</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T001_openBOEClosure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_bob5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01/02/2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01/02/2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">./resources/uploads/upload10.bec.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T008_RaiseBOEClosure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ADRefNo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">approvedBy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NEW10922</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25/01/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Destroy of goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AD Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC01_navigateToOrmMaster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">userName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">userType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_bob2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC02_checkPresenceofElements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expectedErrorMsg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Please select From Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC03_selectDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fromDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">toDate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13/02/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC04_ormReferenceNumberField</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ormReferenceNumber</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ROBERT0123QW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC05_adCodeField</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC06_ieCodeField</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ieCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC07_remittanceStatusField</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remittanceStatus</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="91">
+  <si>
+    <t>T001_openBOEExtension</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>import</t>
+  </si>
+  <si>
+    <t>test_bob3</t>
+  </si>
+  <si>
+    <t>123Welcome*</t>
+  </si>
+  <si>
+    <t>T002_checkAutofillToDate</t>
+  </si>
+  <si>
+    <t>from date</t>
+  </si>
+  <si>
+    <t>01/02/2015</t>
+  </si>
+  <si>
+    <t>01/02/2016</t>
+  </si>
+  <si>
+    <t>T003_searchByBOEnumber</t>
+  </si>
+  <si>
+    <t>boe number</t>
+  </si>
+  <si>
+    <t>01/02/2010</t>
+  </si>
+  <si>
+    <t>T005_uploadBOEFile</t>
+  </si>
+  <si>
+    <t>filepath</t>
+  </si>
+  <si>
+    <t>.\\resources\\Uploads\\upload1.bee.csv</t>
+  </si>
+  <si>
+    <t>T006_DownloadCSVFile</t>
+  </si>
+  <si>
+    <t>01/01/2019</t>
+  </si>
+  <si>
+    <t>T007_ViewBOE</t>
+  </si>
+  <si>
+    <t>T008_RaiseBOEExtension</t>
+  </si>
+  <si>
+    <t>extension date</t>
+  </si>
+  <si>
+    <t>31/01/2020</t>
+  </si>
+  <si>
+    <t>T009_cancelBOEExtension</t>
+  </si>
+  <si>
+    <t>01/01/2017</t>
+  </si>
+  <si>
+    <t>0003746</t>
+  </si>
+  <si>
+    <t>T001_openBOEClosure</t>
+  </si>
+  <si>
+    <t>test_bob5</t>
+  </si>
+  <si>
+    <t>01/02/2018</t>
+  </si>
+  <si>
+    <t>01/02/2017</t>
+  </si>
+  <si>
+    <t>./resources/uploads/upload10.bec.csv</t>
+  </si>
+  <si>
+    <t>T008_RaiseBOEClosure</t>
+  </si>
+  <si>
+    <t>ADRefNo</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>indicator</t>
+  </si>
+  <si>
+    <t>approvedBy</t>
+  </si>
+  <si>
+    <t>NEW10922</t>
+  </si>
+  <si>
+    <t>25/01/2020</t>
+  </si>
+  <si>
+    <t>Destroy of goods</t>
+  </si>
+  <si>
+    <t>AD Bank</t>
+  </si>
+  <si>
+    <t>TC01_navigateToOrmMaster</t>
+  </si>
+  <si>
+    <t>userName</t>
+  </si>
+  <si>
+    <t>userType</t>
+  </si>
+  <si>
+    <t>test_bob2</t>
+  </si>
+  <si>
+    <t>TC02_checkPresenceofElements</t>
+  </si>
+  <si>
+    <t>expectedErrorMsg</t>
+  </si>
+  <si>
+    <t>Please select From Date</t>
+  </si>
+  <si>
+    <t>TC03_selectDate</t>
+  </si>
+  <si>
+    <t>fromDate</t>
+  </si>
+  <si>
+    <t>toDate</t>
+  </si>
+  <si>
+    <t>13/02/2020</t>
+  </si>
+  <si>
+    <t>TC04_ormReferenceNumberField</t>
+  </si>
+  <si>
+    <t>ormReferenceNumber</t>
+  </si>
+  <si>
+    <t>ROBERT0123QW</t>
+  </si>
+  <si>
+    <t>TC05_adCodeField</t>
+  </si>
+  <si>
+    <t>adCode</t>
+  </si>
+  <si>
+    <t>1234</t>
+  </si>
+  <si>
+    <t>TC06_ieCodeField</t>
+  </si>
+  <si>
+    <t>ieCode</t>
+  </si>
+  <si>
+    <t>TC07_remittanceStatusField</t>
+  </si>
+  <si>
+    <t>remittanceStatus</t>
   </si>
   <si>
     <t xml:space="preserve">UNUTILIZED </t>
   </si>
   <si>
-    <t xml:space="preserve">TC10_uploadOrmFile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">filePath</t>
-  </si>
-  <si>
-    <t xml:space="preserve">expectedSuccessMsg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">./resources/uploads/ORM_File1.orm.csv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">File already exist</t>
+    <t>TC10_uploadOrmFile</t>
+  </si>
+  <si>
+    <t>filePath</t>
+  </si>
+  <si>
+    <t>expectedSuccessMsg</t>
+  </si>
+  <si>
+    <t>./resources/uploads/ORM_File1.orm.csv</t>
+  </si>
+  <si>
+    <t>File already exist</t>
   </si>
   <si>
     <t xml:space="preserve">Generated Reference No for Uploaded File  </t>
+  </si>
+  <si>
+    <t>testAPIWithJsonRequest</t>
+  </si>
+  <si>
+    <t>TemplateId</t>
+  </si>
+  <si>
+    <t>jsonPath</t>
+  </si>
+  <si>
+    <t>productID</t>
+  </si>
+  <si>
+    <t>requestType</t>
+  </si>
+  <si>
+    <t>response</t>
+  </si>
+  <si>
+    <t>JSON</t>
+  </si>
+  <si>
+    <t>article/product/sub_product_id</t>
+  </si>
+  <si>
+    <t>1234585</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>testAPIWithXMLRequest</t>
+  </si>
+  <si>
+    <t>testAPIWithXML</t>
+  </si>
+  <si>
+    <t>XML</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>ev:EventType</t>
+  </si>
+  <si>
+    <t>AFP-ER20</t>
+  </si>
+  <si>
+    <t>AFP-ER16</t>
+  </si>
+  <si>
+    <t>testAPIWithXM</t>
+  </si>
+  <si>
+    <t>AFP-ER30</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>AFP-ER45</t>
+  </si>
+  <si>
+    <t>5432179</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -249,24 +317,8 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -293,11 +345,10 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,9 +367,15 @@
         <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -326,109 +383,42 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -487,33 +477,341 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:G40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="35.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.83"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="1" width="11.52"/>
+    <col min="1" max="1" width="24.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.81640625" style="1" customWidth="1"/>
+    <col min="6" max="1025" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -522,7 +820,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -531,7 +829,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -547,7 +845,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -560,18 +858,18 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -579,23 +877,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -606,21 +904,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="2">
         <v>2511066</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
@@ -628,18 +926,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C19" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
@@ -647,18 +945,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C24" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>19</v>
       </c>
@@ -666,18 +964,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B28" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C29" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>20</v>
       </c>
@@ -691,24 +989,24 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B33" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="2" t="n">
+      <c r="C33" s="2">
         <v>1234454</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E34" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>23</v>
       </c>
@@ -722,7 +1020,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B38" s="2" t="s">
         <v>24</v>
       </c>
@@ -733,50 +1031,42 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E39" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="34.08"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="24.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.88"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.88"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="1" width="11.52"/>
+    <col min="1" max="1" width="24.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.90625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" style="1"/>
+    <col min="7" max="7" width="15.90625" style="1" customWidth="1"/>
+    <col min="8" max="1025" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -790,7 +1080,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -801,13 +1091,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="E4" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -815,23 +1105,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -842,21 +1132,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="2">
         <v>2511066</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -864,18 +1154,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C18" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
@@ -883,18 +1173,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C23" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -902,18 +1192,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B26" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="C27" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
@@ -939,11 +1229,11 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B30" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C30" s="2" t="n">
+      <c r="C30" s="2">
         <v>1234454</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -952,7 +1242,7 @@
       <c r="E30" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="2" t="n">
+      <c r="F30" s="2">
         <v>1</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -962,16 +1252,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="I31" s="3" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -979,27 +1268,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="23.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="28.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="20.32"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="1" width="11.54"/>
+    <col min="1" max="1" width="23.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.26953125" style="1" customWidth="1"/>
+    <col min="6" max="1025" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
@@ -1014,7 +1300,7 @@
       </c>
       <c r="E1" s="8"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>44</v>
@@ -1027,7 +1313,7 @@
       </c>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -1036,14 +1322,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>45</v>
       </c>
@@ -1054,7 +1340,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A6" s="11"/>
       <c r="B6" s="9" t="s">
         <v>47</v>
@@ -1063,7 +1349,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="7" t="s">
@@ -1072,14 +1358,14 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>48</v>
       </c>
@@ -1092,7 +1378,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="8"/>
       <c r="B10" s="8" t="s">
         <v>18</v>
@@ -1103,7 +1389,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1112,14 +1398,14 @@
       </c>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="7" t="s">
         <v>52</v>
       </c>
@@ -1130,7 +1416,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="8"/>
       <c r="B14" s="8" t="s">
         <v>54</v>
@@ -1138,7 +1424,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="7" t="s">
@@ -1147,14 +1433,14 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>55</v>
       </c>
@@ -1165,7 +1451,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
       <c r="B18" s="8" t="s">
         <v>57</v>
@@ -1173,7 +1459,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="7" t="s">
@@ -1182,14 +1468,14 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>58</v>
       </c>
@@ -1200,15 +1486,15 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="13"/>
-      <c r="B22" s="14" t="n">
+      <c r="B22" s="14">
         <v>2132132143</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="13"/>
       <c r="B23" s="14"/>
       <c r="C23" s="12" t="s">
@@ -1217,14 +1503,14 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="7" t="s">
         <v>60</v>
       </c>
@@ -1235,7 +1521,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="8"/>
       <c r="B26" s="15" t="s">
         <v>62</v>
@@ -1243,7 +1529,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="8"/>
       <c r="B27" s="15"/>
       <c r="C27" s="7" t="s">
@@ -1252,14 +1538,14 @@
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
         <v>63</v>
       </c>
@@ -1274,7 +1560,7 @@
       </c>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:5" ht="24.5" x14ac:dyDescent="0.35">
       <c r="A30" s="8"/>
       <c r="B30" s="9" t="s">
         <v>66</v>
@@ -1287,7 +1573,7 @@
       </c>
       <c r="E30" s="8"/>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="E31" s="16" t="s">
@@ -1295,12 +1581,267 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.6328125" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B2" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="8">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B3" s="8">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G3" s="8">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E4" s="8"/>
+      <c r="H4" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:12" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C14" s="8"/>
+      <c r="G14" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B9" r:id="rId1" display="kamaljit.bindra@auspost.com.au"/>
+    <hyperlink ref="B13" r:id="rId2" display="kamaljit.bindra@auspost.com.au"/>
+    <hyperlink ref="B7" r:id="rId3" display="kamaljit.bindra@auspost.com.au"/>
+    <hyperlink ref="B8" r:id="rId4" display="kamaljit.bindra@auspost.com.au"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+</worksheet>
 </file>
--- a/resources/testData/testData.xlsx
+++ b/resources/testData/testData.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kamal\auspost-javatestautomation\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RamyaB\IdeaProjects\auspost-javatestautomation\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11868BC2-D239-4150-A401-08752CAF0BB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="1800" yWindow="1800" windowWidth="14400" windowHeight="7380" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOEExtension" sheetId="1" r:id="rId1"/>
     <sheet name="BOEClosure" sheetId="2" r:id="rId2"/>
     <sheet name="ORMMaster" sheetId="3" r:id="rId3"/>
     <sheet name="API" sheetId="4" r:id="rId4"/>
+    <sheet name="JDBC" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="98">
   <si>
     <t>T001_openBOEExtension</t>
   </si>
@@ -301,13 +303,34 @@
   </si>
   <si>
     <t>5432179</t>
+  </si>
+  <si>
+    <t>JDBCInsertQuery</t>
+  </si>
+  <si>
+    <t>firstname</t>
+  </si>
+  <si>
+    <t>lastname</t>
+  </si>
+  <si>
+    <t>mobile</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>test7</t>
+  </si>
+  <si>
+    <t>test6@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -347,6 +370,14 @@
       <name val="Consolas"/>
       <charset val="1"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -383,10 +414,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -413,8 +445,10 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -794,14 +828,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK40"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="24.453125" style="1" customWidth="1"/>
     <col min="2" max="2" width="35.90625" style="1" customWidth="1"/>
@@ -811,7 +845,7 @@
     <col min="6" max="1025" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -820,7 +854,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -829,7 +863,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -845,7 +879,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -858,18 +892,18 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
       <c r="E5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.75">
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -877,23 +911,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.75"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -904,7 +938,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
@@ -912,13 +946,13 @@
         <v>2511066</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.75">
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.75"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
@@ -926,18 +960,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.75">
       <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.75">
       <c r="C19" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.75"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
@@ -945,18 +979,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.75">
       <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.75">
       <c r="C24" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.75"/>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A27" s="6" t="s">
         <v>19</v>
       </c>
@@ -964,18 +998,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.75">
       <c r="B28" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.75">
       <c r="C29" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.75"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A32" s="3" t="s">
         <v>20</v>
       </c>
@@ -989,7 +1023,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.75">
       <c r="B33" s="2" t="s">
         <v>18</v>
       </c>
@@ -1000,13 +1034,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E34" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.75"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A37" s="3" t="s">
         <v>23</v>
       </c>
@@ -1020,7 +1054,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.75">
       <c r="B38" s="2" t="s">
         <v>24</v>
       </c>
@@ -1031,12 +1065,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E39" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="40" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.75"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1044,14 +1078,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="24.453125" style="1" customWidth="1"/>
     <col min="2" max="2" width="34.08984375" style="1" customWidth="1"/>
@@ -1063,10 +1097,10 @@
     <col min="8" max="1025" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -1080,7 +1114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1091,13 +1125,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="E4" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.75"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1105,23 +1139,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.75"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -1132,7 +1166,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1140,13 +1174,13 @@
         <v>2511066</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.75"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1154,18 +1188,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.75">
       <c r="C18" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.75"/>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
@@ -1173,18 +1207,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.75">
       <c r="C23" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.75"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -1192,18 +1226,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B26" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.75">
       <c r="C27" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.75"/>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.75">
       <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
@@ -1229,7 +1263,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.75">
       <c r="B30" s="2" t="s">
         <v>18</v>
       </c>
@@ -1252,7 +1286,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.75">
       <c r="I31" s="3" t="s">
         <v>31</v>
       </c>
@@ -1268,14 +1302,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMK31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A4" sqref="A4:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="23.453125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.453125" style="1" customWidth="1"/>
@@ -1285,7 +1319,7 @@
     <col min="6" max="1025" width="11.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
@@ -1300,7 +1334,7 @@
       </c>
       <c r="E1" s="8"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>44</v>
@@ -1313,7 +1347,7 @@
       </c>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -1322,14 +1356,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5" s="7" t="s">
         <v>45</v>
       </c>
@@ -1340,7 +1374,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="16.75" x14ac:dyDescent="0.75">
       <c r="A6" s="11"/>
       <c r="B6" s="9" t="s">
         <v>47</v>
@@ -1349,7 +1383,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="7" t="s">
@@ -1358,14 +1392,14 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9" s="7" t="s">
         <v>48</v>
       </c>
@@ -1378,7 +1412,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10" s="8"/>
       <c r="B10" s="8" t="s">
         <v>18</v>
@@ -1389,7 +1423,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1398,14 +1432,14 @@
       </c>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A13" s="7" t="s">
         <v>52</v>
       </c>
@@ -1416,7 +1450,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A14" s="8"/>
       <c r="B14" s="8" t="s">
         <v>54</v>
@@ -1424,7 +1458,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="7" t="s">
@@ -1433,14 +1467,14 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A17" s="7" t="s">
         <v>55</v>
       </c>
@@ -1451,7 +1485,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A18" s="8"/>
       <c r="B18" s="8" t="s">
         <v>57</v>
@@ -1459,7 +1493,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="7" t="s">
@@ -1468,14 +1502,14 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A21" s="12" t="s">
         <v>58</v>
       </c>
@@ -1486,7 +1520,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A22" s="13"/>
       <c r="B22" s="14">
         <v>2132132143</v>
@@ -1494,7 +1528,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A23" s="13"/>
       <c r="B23" s="14"/>
       <c r="C23" s="12" t="s">
@@ -1503,14 +1537,14 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A25" s="7" t="s">
         <v>60</v>
       </c>
@@ -1521,7 +1555,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A26" s="8"/>
       <c r="B26" s="15" t="s">
         <v>62</v>
@@ -1529,7 +1563,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A27" s="8"/>
       <c r="B27" s="15"/>
       <c r="C27" s="7" t="s">
@@ -1538,14 +1572,14 @@
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A29" s="7" t="s">
         <v>63</v>
       </c>
@@ -1560,7 +1594,7 @@
       </c>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="1:5" ht="24.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="25" x14ac:dyDescent="0.75">
       <c r="A30" s="8"/>
       <c r="B30" s="9" t="s">
         <v>66</v>
@@ -1573,7 +1607,7 @@
       </c>
       <c r="E30" s="8"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="E31" s="16" t="s">
@@ -1591,21 +1625,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="19.6328125" customWidth="1"/>
     <col min="4" max="4" width="13.26953125" customWidth="1"/>
     <col min="7" max="7" width="17.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A1" s="7" t="s">
         <v>69</v>
       </c>
@@ -1628,7 +1660,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
       <c r="B2" s="8">
         <v>1</v>
       </c>
@@ -1648,7 +1680,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
       <c r="B3" s="8">
         <v>3</v>
       </c>
@@ -1668,14 +1700,14 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
       <c r="E4" s="8"/>
       <c r="H4" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" s="10" customFormat="1" ht="12.25" x14ac:dyDescent="0.65"/>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A6" s="7" t="s">
         <v>79</v>
       </c>
@@ -1701,7 +1733,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A7" s="8"/>
       <c r="B7" s="8" t="s">
         <v>88</v>
@@ -1725,7 +1757,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A8" s="8"/>
       <c r="B8" s="8" t="s">
         <v>88</v>
@@ -1749,7 +1781,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A9" s="8"/>
       <c r="B9" s="8" t="s">
         <v>88</v>
@@ -1773,7 +1805,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -1789,8 +1821,8 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" s="17" customFormat="1" ht="12.25" x14ac:dyDescent="0.65"/>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A12" s="7" t="s">
         <v>80</v>
       </c>
@@ -1810,7 +1842,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.75">
       <c r="A13" s="8"/>
       <c r="B13" s="8" t="s">
         <v>88</v>
@@ -1828,7 +1860,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.75">
       <c r="C14" s="8"/>
       <c r="G14" s="7" t="s">
         <v>86</v>
@@ -1836,12 +1868,72 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B9" r:id="rId1" display="kamaljit.bindra@auspost.com.au"/>
-    <hyperlink ref="B13" r:id="rId2" display="kamaljit.bindra@auspost.com.au"/>
-    <hyperlink ref="B7" r:id="rId3" display="kamaljit.bindra@auspost.com.au"/>
-    <hyperlink ref="B8" r:id="rId4" display="kamaljit.bindra@auspost.com.au"/>
+    <hyperlink ref="B9" r:id="rId1" display="kamaljit.bindra@auspost.com.au" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="B13" r:id="rId2" display="kamaljit.bindra@auspost.com.au" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="B7" r:id="rId3" display="kamaljit.bindra@auspost.com.au" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="B8" r:id="rId4" display="kamaljit.bindra@auspost.com.au" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69DF7D47-0F73-44BC-B7A9-12EA99B553B4}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="1" max="1" width="14.40625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.04296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="A1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2">
+        <v>4547586750</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
+      <c r="F3" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{51B99AE6-82CA-448F-AF95-89D252C385C2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/resources/testData/testData.xlsx
+++ b/resources/testData/testData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RamyaB\IdeaProjects\auspost-javatestautomation\resources\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/willyeng/Documents/ampion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11868BC2-D239-4150-A401-08752CAF0BB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC49907-4365-0A44-8ACD-54D5B8401848}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1800" windowWidth="14400" windowHeight="7380" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOEExtension" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="101">
   <si>
     <t>T001_openBOEExtension</t>
   </si>
@@ -324,6 +324,15 @@
   </si>
   <si>
     <t>test6@gmail.com</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>testMountebankAPI</t>
   </si>
 </sst>
 </file>
@@ -342,7 +351,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -368,7 +377,7 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Consolas"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -835,17 +844,17 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.81640625" style="1" customWidth="1"/>
-    <col min="6" max="1025" width="11.54296875" style="1"/>
+    <col min="1" max="1" width="24.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.83203125" style="1" customWidth="1"/>
+    <col min="6" max="1025" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -854,7 +863,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -863,7 +872,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -879,7 +888,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -892,18 +901,18 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="E5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
@@ -911,23 +920,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.75"/>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -938,7 +947,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
@@ -946,13 +955,13 @@
         <v>2511066</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.75"/>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
@@ -960,18 +969,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C19" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.75"/>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>17</v>
       </c>
@@ -979,18 +988,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C24" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.75"/>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>19</v>
       </c>
@@ -998,18 +1007,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="C29" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.75"/>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>20</v>
       </c>
@@ -1023,7 +1032,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B33" s="2" t="s">
         <v>18</v>
       </c>
@@ -1034,13 +1043,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E34" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.75"/>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>23</v>
       </c>
@@ -1054,7 +1063,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>24</v>
       </c>
@@ -1065,12 +1074,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E39" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.75"/>
+    <row r="40" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -1085,22 +1094,22 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.08984375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.90625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.54296875" style="1"/>
-    <col min="7" max="7" width="15.90625" style="1" customWidth="1"/>
-    <col min="8" max="1025" width="11.54296875" style="1"/>
+    <col min="1" max="1" width="24.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="1"/>
+    <col min="7" max="7" width="15.83203125" style="1" customWidth="1"/>
+    <col min="8" max="1025" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -1114,7 +1123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1125,13 +1134,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E4" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.75"/>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1139,23 +1148,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.75"/>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
@@ -1166,7 +1175,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
@@ -1174,13 +1183,13 @@
         <v>2511066</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.75"/>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1188,18 +1197,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C18" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.75"/>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>17</v>
       </c>
@@ -1207,18 +1216,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C23" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.75"/>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -1226,18 +1235,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C27" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.75"/>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
@@ -1263,7 +1272,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B30" s="2" t="s">
         <v>18</v>
       </c>
@@ -1286,7 +1295,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I31" s="3" t="s">
         <v>31</v>
       </c>
@@ -1309,17 +1318,17 @@
       <selection activeCell="A4" sqref="A4:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.453125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.26953125" style="1" customWidth="1"/>
-    <col min="6" max="1025" width="11.54296875" style="1"/>
+    <col min="1" max="1" width="23.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" style="1" customWidth="1"/>
+    <col min="6" max="1025" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
@@ -1334,7 +1343,7 @@
       </c>
       <c r="E1" s="8"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
       <c r="B2" s="9" t="s">
         <v>44</v>
@@ -1347,7 +1356,7 @@
       </c>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
@@ -1356,14 +1365,14 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="10"/>
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
       <c r="E4" s="10"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>45</v>
       </c>
@@ -1374,7 +1383,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" ht="16.75" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="11"/>
       <c r="B6" s="9" t="s">
         <v>47</v>
@@ -1383,7 +1392,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
       <c r="C7" s="7" t="s">
@@ -1392,14 +1401,14 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="10"/>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>48</v>
       </c>
@@ -1412,7 +1421,7 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="8" t="s">
         <v>18</v>
@@ -1423,7 +1432,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -1432,14 +1441,14 @@
       </c>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="10"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>52</v>
       </c>
@@ -1450,7 +1459,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="8" t="s">
         <v>54</v>
@@ -1458,7 +1467,7 @@
       <c r="D14" s="8"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="8"/>
       <c r="C15" s="7" t="s">
@@ -1467,14 +1476,14 @@
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>55</v>
       </c>
@@ -1485,7 +1494,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="8" t="s">
         <v>57</v>
@@ -1493,7 +1502,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="7" t="s">
@@ -1502,14 +1511,14 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="12" t="s">
         <v>58</v>
       </c>
@@ -1520,7 +1529,7 @@
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="13"/>
       <c r="B22" s="14">
         <v>2132132143</v>
@@ -1528,7 +1537,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="14"/>
       <c r="C23" s="12" t="s">
@@ -1537,14 +1546,14 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="10"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>60</v>
       </c>
@@ -1555,7 +1564,7 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="15" t="s">
         <v>62</v>
@@ -1563,7 +1572,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" s="15"/>
       <c r="C27" s="7" t="s">
@@ -1572,14 +1581,14 @@
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>63</v>
       </c>
@@ -1594,7 +1603,7 @@
       </c>
       <c r="E29" s="8"/>
     </row>
-    <row r="30" spans="1:5" ht="25" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:5" ht="27" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="9" t="s">
         <v>66</v>
@@ -1607,7 +1616,7 @@
       </c>
       <c r="E30" s="8"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="8"/>
       <c r="E31" s="16" t="s">
@@ -1626,18 +1635,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="248" zoomScaleNormal="400" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.6328125" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" customWidth="1"/>
-    <col min="7" max="7" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>69</v>
       </c>
@@ -1660,7 +1671,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B2" s="8">
         <v>1</v>
       </c>
@@ -1680,7 +1691,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B3" s="8">
         <v>3</v>
       </c>
@@ -1700,14 +1711,14 @@
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E4" s="8"/>
       <c r="H4" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="10" customFormat="1" ht="12.25" x14ac:dyDescent="0.65"/>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:12" s="10" customFormat="1" ht="12" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>79</v>
       </c>
@@ -1733,7 +1744,7 @@
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="8" t="s">
         <v>88</v>
@@ -1757,7 +1768,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="8" t="s">
         <v>88</v>
@@ -1781,7 +1792,7 @@
       <c r="K8" s="8"/>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="8" t="s">
         <v>88</v>
@@ -1805,7 +1816,7 @@
       <c r="K9" s="8"/>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -1821,8 +1832,8 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" s="17" customFormat="1" ht="12.25" x14ac:dyDescent="0.65"/>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:12" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>80</v>
       </c>
@@ -1842,7 +1853,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="8" t="s">
         <v>88</v>
@@ -1860,10 +1871,53 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="8"/>
       <c r="G14" s="7" t="s">
         <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="17" customFormat="1" ht="12" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1882,19 +1936,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69DF7D47-0F73-44BC-B7A9-12EA99B553B4}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.40625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.04296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>91</v>
       </c>
@@ -1911,7 +1965,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>96</v>
       </c>
@@ -1925,7 +1979,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F3" s="7" t="s">
         <v>91</v>
       </c>

--- a/resources/testData/testData.xlsx
+++ b/resources/testData/testData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/willyeng/Documents/ampion/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/willyeng/Source/auspost-javatestautomation/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC49907-4365-0A44-8ACD-54D5B8401848}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83070483-357C-B14F-8097-E80A586A03A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44160" yWindow="-5020" windowWidth="33600" windowHeight="20540" tabRatio="500" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOEExtension" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="101">
   <si>
     <t>T001_openBOEExtension</t>
   </si>
@@ -1638,7 +1638,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="248" zoomScaleNormal="400" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1892,13 +1892,16 @@
         <v>71</v>
       </c>
       <c r="E16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="G16" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="8" t="s">
         <v>99</v>
       </c>
@@ -1908,15 +1911,16 @@
       <c r="D17" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="8"/>
+      <c r="F17" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G18" t="s">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
         <v>100</v>
       </c>
     </row>
